--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.c_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.c_dm_test_hln_resultados.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>Parámetro</t>
   </si>
@@ -110,15 +110,12 @@
     <t>62.5%</t>
   </si>
   <si>
-    <t>12.5%</t>
+    <t>0.0%</t>
   </si>
   <si>
     <t>75.0%</t>
   </si>
   <si>
-    <t>0.0%</t>
-  </si>
-  <si>
     <t>0.6163</t>
   </si>
   <si>
@@ -128,22 +125,22 @@
     <t>0.6766</t>
   </si>
   <si>
-    <t>0.6890</t>
-  </si>
-  <si>
-    <t>0.6771</t>
+    <t>0.6968</t>
+  </si>
+  <si>
+    <t>0.6835</t>
   </si>
   <si>
     <t>0.6103</t>
   </si>
   <si>
-    <t>0.8417</t>
+    <t>0.6701</t>
   </si>
   <si>
     <t>0.6729</t>
   </si>
   <si>
-    <t>0.6277</t>
+    <t>0.6273</t>
   </si>
   <si>
     <t>0.3603</t>
@@ -155,22 +152,22 @@
     <t>0.4419</t>
   </si>
   <si>
-    <t>0.3885</t>
-  </si>
-  <si>
-    <t>0.3932</t>
+    <t>0.3918</t>
+  </si>
+  <si>
+    <t>0.3966</t>
   </si>
   <si>
     <t>0.3552</t>
   </si>
   <si>
-    <t>0.4473</t>
+    <t>0.4161</t>
   </si>
   <si>
     <t>0.4252</t>
   </si>
   <si>
-    <t>0.3741</t>
+    <t>0.3721</t>
   </si>
   <si>
     <t>0.5846</t>
@@ -182,22 +179,22 @@
     <t>0.6531</t>
   </si>
   <si>
-    <t>0.5640</t>
-  </si>
-  <si>
-    <t>0.5807</t>
+    <t>0.5622</t>
+  </si>
+  <si>
+    <t>0.5802</t>
   </si>
   <si>
     <t>0.5820</t>
   </si>
   <si>
-    <t>0.5314</t>
+    <t>0.6209</t>
   </si>
   <si>
     <t>0.6319</t>
   </si>
   <si>
-    <t>0.5960</t>
+    <t>0.5932</t>
   </si>
 </sst>
 </file>
@@ -730,7 +727,7 @@
         <v>-1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -762,7 +759,7 @@
         <v>-1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -794,7 +791,7 @@
         <v>-1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -826,7 +823,7 @@
         <v>-1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -875,16 +872,16 @@
         <v>-1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -893,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>-1</v>
@@ -922,7 +919,7 @@
         <v>-1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1019,22 +1016,22 @@
         <v>0.0007481654531624748</v>
       </c>
       <c r="E2">
-        <v>6.930145346473182E-11</v>
+        <v>8.283818075938143E-12</v>
       </c>
       <c r="F2">
-        <v>2.004962418311607E-09</v>
+        <v>3.801852166418485E-10</v>
       </c>
       <c r="G2">
         <v>0.05736872694433814</v>
       </c>
       <c r="H2">
-        <v>3.108624468950438E-15</v>
+        <v>1.596530390779449E-06</v>
       </c>
       <c r="I2">
         <v>9.677414330333534E-06</v>
       </c>
       <c r="J2">
-        <v>0.127542910759636</v>
+        <v>0.1323287309707804</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1051,22 +1048,22 @@
         <v>0.01001806555946216</v>
       </c>
       <c r="E3">
-        <v>0.1009885386280045</v>
+        <v>0.03976328837265042</v>
       </c>
       <c r="F3">
-        <v>0.2708795690988519</v>
+        <v>0.1276983972787535</v>
       </c>
       <c r="G3">
         <v>0.00127144836834403</v>
       </c>
       <c r="H3">
-        <v>3.352873534367973E-14</v>
+        <v>0.3098776786073643</v>
       </c>
       <c r="I3">
         <v>0.1561508644037468</v>
       </c>
       <c r="J3">
-        <v>0.0006875842014983924</v>
+        <v>0.0006775650519141863</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1083,22 +1080,22 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5147569179136999</v>
+        <v>0.2905693049872158</v>
       </c>
       <c r="F4">
-        <v>0.9761443658852844</v>
+        <v>0.6816802827263535</v>
       </c>
       <c r="G4">
         <v>0.0003872540159202131</v>
       </c>
       <c r="H4">
-        <v>2.435829316027593E-13</v>
+        <v>0.5669931068364262</v>
       </c>
       <c r="I4">
         <v>0.6995396135570053</v>
       </c>
       <c r="J4">
-        <v>7.440214457066219E-05</v>
+        <v>7.818013490834552E-05</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1106,31 +1103,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>6.930145346473182E-11</v>
+        <v>8.283818075938143E-12</v>
       </c>
       <c r="C5">
-        <v>0.1009885386280045</v>
+        <v>0.03976328837265042</v>
       </c>
       <c r="D5">
-        <v>0.5147569179136999</v>
+        <v>0.2905693049872158</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.03893473266266101</v>
+        <v>0.02591054130137072</v>
       </c>
       <c r="G5">
-        <v>1.341149413747189E-13</v>
+        <v>1.931788062847772E-14</v>
       </c>
       <c r="H5">
-        <v>5.140134984316092E-10</v>
+        <v>0.01716443472872409</v>
       </c>
       <c r="I5">
-        <v>0.1888588649942513</v>
+        <v>0.05644497732087794</v>
       </c>
       <c r="J5">
-        <v>2.110092868878866E-06</v>
+        <v>2.757983019741062E-07</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1138,31 +1135,31 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>2.004962418311607E-09</v>
+        <v>3.801852166418485E-10</v>
       </c>
       <c r="C6">
-        <v>0.2708795690988519</v>
+        <v>0.1276983972787535</v>
       </c>
       <c r="D6">
-        <v>0.9761443658852844</v>
+        <v>0.6816802827263535</v>
       </c>
       <c r="E6">
-        <v>0.03893473266266101</v>
+        <v>0.02591054130137072</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.695399459184955E-12</v>
+        <v>4.942712905631197E-13</v>
       </c>
       <c r="H6">
-        <v>1.946687255838242E-11</v>
+        <v>0.1235412171907602</v>
       </c>
       <c r="I6">
-        <v>0.6746879649032342</v>
+        <v>0.2846560356563583</v>
       </c>
       <c r="J6">
-        <v>5.584614916287478E-06</v>
+        <v>6.397577905215002E-07</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1179,22 +1176,22 @@
         <v>0.0003872540159202131</v>
       </c>
       <c r="E7">
-        <v>1.341149413747189E-13</v>
+        <v>1.931788062847772E-14</v>
       </c>
       <c r="F7">
-        <v>2.695399459184955E-12</v>
+        <v>4.942712905631197E-13</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>8.881784197001252E-15</v>
+        <v>3.068825829011246E-07</v>
       </c>
       <c r="I7">
         <v>1.050225153287343E-06</v>
       </c>
       <c r="J7">
-        <v>0.01889003269171807</v>
+        <v>0.0198551624402572</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1202,31 +1199,31 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>3.108624468950438E-15</v>
+        <v>1.596530390779449E-06</v>
       </c>
       <c r="C8">
-        <v>3.352873534367973E-14</v>
+        <v>0.3098776786073643</v>
       </c>
       <c r="D8">
-        <v>2.435829316027593E-13</v>
+        <v>0.5669931068364262</v>
       </c>
       <c r="E8">
-        <v>5.140134984316092E-10</v>
+        <v>0.01716443472872409</v>
       </c>
       <c r="F8">
-        <v>1.946687255838242E-11</v>
+        <v>0.1235412171907602</v>
       </c>
       <c r="G8">
-        <v>8.881784197001252E-15</v>
+        <v>3.068825829011246E-07</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>4.600764214046649E-13</v>
+        <v>0.6809329827307256</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.299130816840744E-07</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1243,22 +1240,22 @@
         <v>0.6995396135570053</v>
       </c>
       <c r="E9">
-        <v>0.1888588649942513</v>
+        <v>0.05644497732087794</v>
       </c>
       <c r="F9">
-        <v>0.6746879649032342</v>
+        <v>0.2846560356563583</v>
       </c>
       <c r="G9">
         <v>1.050225153287343E-06</v>
       </c>
       <c r="H9">
-        <v>4.600764214046649E-13</v>
+        <v>0.6809329827307256</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.022458562260908E-09</v>
+        <v>1.856812925637996E-09</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1266,28 +1263,28 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>0.127542910759636</v>
+        <v>0.1323287309707804</v>
       </c>
       <c r="C10">
-        <v>0.0006875842014983924</v>
+        <v>0.0006775650519141863</v>
       </c>
       <c r="D10">
-        <v>7.440214457066219E-05</v>
+        <v>7.818013490834552E-05</v>
       </c>
       <c r="E10">
-        <v>2.110092868878866E-06</v>
+        <v>2.757983019741062E-07</v>
       </c>
       <c r="F10">
-        <v>5.584614916287478E-06</v>
+        <v>6.397577905215002E-07</v>
       </c>
       <c r="G10">
-        <v>0.01889003269171807</v>
+        <v>0.0198551624402572</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.299130816840744E-07</v>
       </c>
       <c r="I10">
-        <v>1.022458562260908E-09</v>
+        <v>1.856812925637996E-09</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1349,22 +1346,22 @@
         <v>-3.911530209612838</v>
       </c>
       <c r="E2">
-        <v>-11.65648015857838</v>
+        <v>-13.01084839191168</v>
       </c>
       <c r="F2">
-        <v>-9.723691652704957</v>
+        <v>-10.64854566853562</v>
       </c>
       <c r="G2">
         <v>2.005453444405136</v>
       </c>
       <c r="H2">
-        <v>-19.21199866836124</v>
+        <v>-6.48449256070346</v>
       </c>
       <c r="I2">
         <v>-5.707733000187931</v>
       </c>
       <c r="J2">
-        <v>-1.583655254094527</v>
+        <v>-1.562979763114934</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1381,22 +1378,22 @@
         <v>-2.817962819840717</v>
       </c>
       <c r="E3">
-        <v>-1.711843685684695</v>
+        <v>-2.185760439263281</v>
       </c>
       <c r="F3">
-        <v>-1.129434336829731</v>
+        <v>-1.582973483162972</v>
       </c>
       <c r="G3">
         <v>3.692991328532422</v>
       </c>
       <c r="H3">
-        <v>-17.11610303577338</v>
+        <v>-1.03946660667921</v>
       </c>
       <c r="I3">
         <v>-1.468394575129118</v>
       </c>
       <c r="J3">
-        <v>3.946218426546325</v>
+        <v>3.952246053485287</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1413,22 +1410,22 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.6621423138231065</v>
+        <v>-1.08292322843627</v>
       </c>
       <c r="F4">
-        <v>-0.0302450000759146</v>
+        <v>-0.415666840015626</v>
       </c>
       <c r="G4">
         <v>4.181562022350752</v>
       </c>
       <c r="H4">
-        <v>-15.53093184867184</v>
+        <v>0.5812302713427215</v>
       </c>
       <c r="I4">
         <v>0.3910254574110527</v>
       </c>
       <c r="J4">
-        <v>4.857691462767162</v>
+        <v>4.837307562700851</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1436,31 +1433,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>11.65648015857838</v>
+        <v>13.01084839191168</v>
       </c>
       <c r="C5">
-        <v>1.711843685684695</v>
+        <v>2.185760439263281</v>
       </c>
       <c r="D5">
-        <v>0.6621423138231065</v>
+        <v>1.08292322843627</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.195921962442235</v>
+        <v>2.388827944738118</v>
       </c>
       <c r="G5">
-        <v>15.99461439913984</v>
+        <v>17.57952469866594</v>
       </c>
       <c r="H5">
-        <v>-10.47658839445831</v>
+        <v>2.577898000426453</v>
       </c>
       <c r="I5">
-        <v>1.355988345822863</v>
+        <v>2.013585565163249</v>
       </c>
       <c r="J5">
-        <v>6.362259438609419</v>
+        <v>7.274104775411193</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1468,31 +1465,31 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>9.723691652704957</v>
+        <v>10.64854566853562</v>
       </c>
       <c r="C6">
-        <v>1.129434336829731</v>
+        <v>1.582973483162972</v>
       </c>
       <c r="D6">
-        <v>0.0302450000759146</v>
+        <v>0.415666840015626</v>
       </c>
       <c r="E6">
-        <v>-2.195921962442235</v>
+        <v>-2.388827944738118</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>13.7741955342299</v>
+        <v>14.99518585919768</v>
       </c>
       <c r="H6">
-        <v>-12.45245792623577</v>
+        <v>1.60144439316288</v>
       </c>
       <c r="I6">
-        <v>0.4253853969511904</v>
+        <v>1.096644908984366</v>
       </c>
       <c r="J6">
-        <v>5.941641013723025</v>
+        <v>6.891196790068491</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1509,22 +1506,22 @@
         <v>-4.181562022350752</v>
       </c>
       <c r="E7">
-        <v>-15.99461439913984</v>
+        <v>-17.57952469866594</v>
       </c>
       <c r="F7">
-        <v>-13.7741955342299</v>
+        <v>-14.99518585919768</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-18.25832536967807</v>
+        <v>-7.225013223239444</v>
       </c>
       <c r="I7">
         <v>-6.669599299106175</v>
       </c>
       <c r="J7">
-        <v>-2.534388005371263</v>
+        <v>-2.511647798551057</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1532,31 +1529,31 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>19.21199866836124</v>
+        <v>6.48449256070346</v>
       </c>
       <c r="C8">
-        <v>17.11610303577338</v>
+        <v>1.03946660667921</v>
       </c>
       <c r="D8">
-        <v>15.53093184867184</v>
+        <v>-0.5812302713427215</v>
       </c>
       <c r="E8">
-        <v>10.47658839445831</v>
+        <v>-2.577898000426453</v>
       </c>
       <c r="F8">
-        <v>12.45245792623577</v>
+        <v>-1.60144439316288</v>
       </c>
       <c r="G8">
-        <v>18.25832536967807</v>
+        <v>7.225013223239444</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.04893541060827</v>
+        <v>-0.4167035473172155</v>
       </c>
       <c r="J8">
-        <v>22.92895563047808</v>
+        <v>7.358093164909719</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1573,22 +1570,22 @@
         <v>-0.3910254574110527</v>
       </c>
       <c r="E9">
-        <v>-1.355988345822863</v>
+        <v>-2.013585565163249</v>
       </c>
       <c r="F9">
-        <v>-0.4253853969511904</v>
+        <v>-1.096644908984366</v>
       </c>
       <c r="G9">
         <v>6.669599299106175</v>
       </c>
       <c r="H9">
-        <v>-15.04893541060827</v>
+        <v>0.4167035473172155</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.09153975040419</v>
+        <v>9.765176296180259</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1596,28 +1593,28 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1.583655254094527</v>
+        <v>1.562979763114934</v>
       </c>
       <c r="C10">
-        <v>-3.946218426546325</v>
+        <v>-3.952246053485287</v>
       </c>
       <c r="D10">
-        <v>-4.857691462767162</v>
+        <v>-4.837307562700851</v>
       </c>
       <c r="E10">
-        <v>-6.362259438609419</v>
+        <v>-7.274104775411193</v>
       </c>
       <c r="F10">
-        <v>-5.941641013723025</v>
+        <v>-6.891196790068491</v>
       </c>
       <c r="G10">
-        <v>2.534388005371263</v>
+        <v>2.511647798551057</v>
       </c>
       <c r="H10">
-        <v>-22.92895563047808</v>
+        <v>-7.358093164909719</v>
       </c>
       <c r="I10">
-        <v>-10.09153975040419</v>
+        <v>-9.765176296180259</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1679,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1693,25 +1690,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1719,25 +1716,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1745,25 +1742,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1771,25 +1768,25 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1809,13 +1806,13 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1826,22 +1823,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1849,25 +1846,25 @@
         <v>19</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1887,13 +1884,13 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.c_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.c_dm_test_hln_resultados.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>Parámetro</t>
   </si>
@@ -59,12 +59,12 @@
     <t>Sieve Bootstrap</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>LSPM</t>
   </si>
   <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>MCPS</t>
   </si>
   <si>
@@ -113,18 +113,21 @@
     <t>0.0%</t>
   </si>
   <si>
+    <t>12.5%</t>
+  </si>
+  <si>
     <t>75.0%</t>
   </si>
   <si>
     <t>0.6163</t>
   </si>
   <si>
+    <t>0.6666</t>
+  </si>
+  <si>
     <t>0.6604</t>
   </si>
   <si>
-    <t>0.6766</t>
-  </si>
-  <si>
     <t>0.6968</t>
   </si>
   <si>
@@ -146,12 +149,12 @@
     <t>0.3603</t>
   </si>
   <si>
+    <t>0.4475</t>
+  </si>
+  <si>
     <t>0.4433</t>
   </si>
   <si>
-    <t>0.4419</t>
-  </si>
-  <si>
     <t>0.3918</t>
   </si>
   <si>
@@ -173,10 +176,10 @@
     <t>0.5846</t>
   </si>
   <si>
+    <t>0.6714</t>
+  </si>
+  <si>
     <t>0.6712</t>
-  </si>
-  <si>
-    <t>0.6531</t>
   </si>
   <si>
     <t>0.5622</t>
@@ -680,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -709,13 +712,13 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -741,10 +744,10 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1010,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>0.001042834702750239</v>
+      </c>
+      <c r="D2">
         <v>0.00300231153697883</v>
-      </c>
-      <c r="D2">
-        <v>0.0007481654531624748</v>
       </c>
       <c r="E2">
         <v>8.283818075938143E-12</v>
@@ -1039,31 +1042,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.00300231153697883</v>
+        <v>0.001042834702750239</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01001806555946216</v>
+        <v>1.86743424863689E-05</v>
       </c>
       <c r="E3">
-        <v>0.03976328837265042</v>
+        <v>0.08283196913235291</v>
       </c>
       <c r="F3">
-        <v>0.1276983972787535</v>
+        <v>0.2555461383619009</v>
       </c>
       <c r="G3">
-        <v>0.00127144836834403</v>
+        <v>0.0004277518136441838</v>
       </c>
       <c r="H3">
-        <v>0.3098776786073643</v>
+        <v>0.7088889243839371</v>
       </c>
       <c r="I3">
-        <v>0.1561508644037468</v>
+        <v>0.4661182438137681</v>
       </c>
       <c r="J3">
-        <v>0.0006775650519141863</v>
+        <v>0.0001208668863716955</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1071,31 +1074,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.0007481654531624748</v>
+        <v>0.00300231153697883</v>
       </c>
       <c r="C4">
-        <v>0.01001806555946216</v>
+        <v>1.86743424863689E-05</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2905693049872158</v>
+        <v>0.03976328837265042</v>
       </c>
       <c r="F4">
-        <v>0.6816802827263535</v>
+        <v>0.1276983972787535</v>
       </c>
       <c r="G4">
-        <v>0.0003872540159202131</v>
+        <v>0.00127144836834403</v>
       </c>
       <c r="H4">
-        <v>0.5669931068364262</v>
+        <v>0.3098776786073643</v>
       </c>
       <c r="I4">
-        <v>0.6995396135570053</v>
+        <v>0.1561508644037468</v>
       </c>
       <c r="J4">
-        <v>7.818013490834552E-05</v>
+        <v>0.0006775650519141863</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1106,10 +1109,10 @@
         <v>8.283818075938143E-12</v>
       </c>
       <c r="C5">
+        <v>0.08283196913235291</v>
+      </c>
+      <c r="D5">
         <v>0.03976328837265042</v>
-      </c>
-      <c r="D5">
-        <v>0.2905693049872158</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1138,10 +1141,10 @@
         <v>3.801852166418485E-10</v>
       </c>
       <c r="C6">
+        <v>0.2555461383619009</v>
+      </c>
+      <c r="D6">
         <v>0.1276983972787535</v>
-      </c>
-      <c r="D6">
-        <v>0.6816802827263535</v>
       </c>
       <c r="E6">
         <v>0.02591054130137072</v>
@@ -1170,10 +1173,10 @@
         <v>0.05736872694433814</v>
       </c>
       <c r="C7">
+        <v>0.0004277518136441838</v>
+      </c>
+      <c r="D7">
         <v>0.00127144836834403</v>
-      </c>
-      <c r="D7">
-        <v>0.0003872540159202131</v>
       </c>
       <c r="E7">
         <v>1.931788062847772E-14</v>
@@ -1202,10 +1205,10 @@
         <v>1.596530390779449E-06</v>
       </c>
       <c r="C8">
+        <v>0.7088889243839371</v>
+      </c>
+      <c r="D8">
         <v>0.3098776786073643</v>
-      </c>
-      <c r="D8">
-        <v>0.5669931068364262</v>
       </c>
       <c r="E8">
         <v>0.01716443472872409</v>
@@ -1234,10 +1237,10 @@
         <v>9.677414330333534E-06</v>
       </c>
       <c r="C9">
+        <v>0.4661182438137681</v>
+      </c>
+      <c r="D9">
         <v>0.1561508644037468</v>
-      </c>
-      <c r="D9">
-        <v>0.6995396135570053</v>
       </c>
       <c r="E9">
         <v>0.05644497732087794</v>
@@ -1266,10 +1269,10 @@
         <v>0.1323287309707804</v>
       </c>
       <c r="C10">
+        <v>0.0001208668863716955</v>
+      </c>
+      <c r="D10">
         <v>0.0006775650519141863</v>
-      </c>
-      <c r="D10">
-        <v>7.818013490834552E-05</v>
       </c>
       <c r="E10">
         <v>2.757983019741062E-07</v>
@@ -1340,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>-3.774838328417663</v>
+      </c>
+      <c r="D2">
         <v>-3.334942666046302</v>
-      </c>
-      <c r="D2">
-        <v>-3.911530209612838</v>
       </c>
       <c r="E2">
         <v>-13.01084839191168</v>
@@ -1369,31 +1372,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>3.334942666046302</v>
+        <v>3.774838328417663</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-2.817962819840717</v>
+        <v>5.431066377822043</v>
       </c>
       <c r="E3">
-        <v>-2.185760439263281</v>
+        <v>-1.817216043404975</v>
       </c>
       <c r="F3">
-        <v>-1.582973483162972</v>
+        <v>-1.167400431170008</v>
       </c>
       <c r="G3">
-        <v>3.692991328532422</v>
+        <v>4.140835126598625</v>
       </c>
       <c r="H3">
-        <v>-1.03946660667921</v>
+        <v>-0.3782243570437331</v>
       </c>
       <c r="I3">
-        <v>-1.468394575129118</v>
+        <v>-0.7416928250883584</v>
       </c>
       <c r="J3">
-        <v>3.952246053485287</v>
+        <v>4.658339122998648</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1401,31 +1404,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>3.911530209612838</v>
+        <v>3.334942666046302</v>
       </c>
       <c r="C4">
-        <v>2.817962819840717</v>
+        <v>-5.431066377822043</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.08292322843627</v>
+        <v>-2.185760439263281</v>
       </c>
       <c r="F4">
-        <v>-0.415666840015626</v>
+        <v>-1.582973483162972</v>
       </c>
       <c r="G4">
-        <v>4.181562022350752</v>
+        <v>3.692991328532422</v>
       </c>
       <c r="H4">
-        <v>0.5812302713427215</v>
+        <v>-1.03946660667921</v>
       </c>
       <c r="I4">
-        <v>0.3910254574110527</v>
+        <v>-1.468394575129118</v>
       </c>
       <c r="J4">
-        <v>4.837307562700851</v>
+        <v>3.952246053485287</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1436,10 +1439,10 @@
         <v>13.01084839191168</v>
       </c>
       <c r="C5">
+        <v>1.817216043404975</v>
+      </c>
+      <c r="D5">
         <v>2.185760439263281</v>
-      </c>
-      <c r="D5">
-        <v>1.08292322843627</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1468,10 +1471,10 @@
         <v>10.64854566853562</v>
       </c>
       <c r="C6">
+        <v>1.167400431170008</v>
+      </c>
+      <c r="D6">
         <v>1.582973483162972</v>
-      </c>
-      <c r="D6">
-        <v>0.415666840015626</v>
       </c>
       <c r="E6">
         <v>-2.388827944738118</v>
@@ -1500,10 +1503,10 @@
         <v>-2.005453444405136</v>
       </c>
       <c r="C7">
+        <v>-4.140835126598625</v>
+      </c>
+      <c r="D7">
         <v>-3.692991328532422</v>
-      </c>
-      <c r="D7">
-        <v>-4.181562022350752</v>
       </c>
       <c r="E7">
         <v>-17.57952469866594</v>
@@ -1532,10 +1535,10 @@
         <v>6.48449256070346</v>
       </c>
       <c r="C8">
+        <v>0.3782243570437331</v>
+      </c>
+      <c r="D8">
         <v>1.03946660667921</v>
-      </c>
-      <c r="D8">
-        <v>-0.5812302713427215</v>
       </c>
       <c r="E8">
         <v>-2.577898000426453</v>
@@ -1564,10 +1567,10 @@
         <v>5.707733000187931</v>
       </c>
       <c r="C9">
+        <v>0.7416928250883584</v>
+      </c>
+      <c r="D9">
         <v>1.468394575129118</v>
-      </c>
-      <c r="D9">
-        <v>-0.3910254574110527</v>
       </c>
       <c r="E9">
         <v>-2.013585565163249</v>
@@ -1596,10 +1599,10 @@
         <v>1.562979763114934</v>
       </c>
       <c r="C10">
+        <v>-4.658339122998648</v>
+      </c>
+      <c r="D10">
         <v>-3.952246053485287</v>
-      </c>
-      <c r="D10">
-        <v>-4.837307562700851</v>
       </c>
       <c r="E10">
         <v>-7.274104775411193</v>
@@ -1676,13 +1679,13 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1693,22 +1696,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1716,25 +1719,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1754,13 +1757,13 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1780,13 +1783,13 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1803,16 +1806,16 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1832,13 +1835,13 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1858,13 +1861,13 @@
         <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1881,16 +1884,16 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
